--- a/Team-Data/2007-08/1-8-2007-08.xlsx
+++ b/Team-Data/2007-08/1-8-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -750,7 +817,7 @@
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
         <v>18</v>
@@ -777,22 +844,22 @@
         <v>30</v>
       </c>
       <c r="AO2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ2" t="n">
         <v>7</v>
       </c>
       <c r="AR2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT2" t="n">
         <v>22</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>21</v>
       </c>
       <c r="AU2" t="n">
         <v>23</v>
@@ -804,13 +871,13 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA2" t="n">
         <v>8</v>
@@ -819,7 +886,7 @@
         <v>21</v>
       </c>
       <c r="BC2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -959,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="AO3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP3" t="n">
         <v>7</v>
@@ -983,7 +1050,7 @@
         <v>13</v>
       </c>
       <c r="AW3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX3" t="n">
         <v>25</v>
@@ -998,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -1030,121 +1097,121 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
         <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>0.364</v>
+        <v>0.344</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
       </c>
       <c r="I4" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="J4" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.448</v>
+        <v>0.443</v>
       </c>
       <c r="L4" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M4" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.369</v>
+        <v>0.371</v>
       </c>
       <c r="O4" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="P4" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.697</v>
+        <v>0.696</v>
       </c>
       <c r="R4" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S4" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="T4" t="n">
         <v>39.8</v>
       </c>
       <c r="U4" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V4" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W4" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X4" t="n">
         <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>94.3</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.7</v>
+        <v>-5.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="n">
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
       </c>
       <c r="AM4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
@@ -1159,31 +1226,31 @@
         <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
         <v>25</v>
       </c>
       <c r="BA4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BC4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
-        <v>0.394</v>
+        <v>0.406</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="J5" t="n">
-        <v>85.59999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.418</v>
+        <v>0.417</v>
       </c>
       <c r="L5" t="n">
         <v>5.2</v>
@@ -1242,37 +1309,37 @@
         <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>0.326</v>
+        <v>0.327</v>
       </c>
       <c r="O5" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="P5" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R5" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="S5" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
         <v>44</v>
       </c>
       <c r="U5" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V5" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y5" t="n">
         <v>5.8</v>
@@ -1281,49 +1348,49 @@
         <v>21.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>94</v>
+        <v>93.8</v>
       </c>
       <c r="AC5" t="n">
         <v>-3.4</v>
       </c>
       <c r="AD5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE5" t="n">
         <v>21</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>22</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>1</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
         <v>24</v>
@@ -1335,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT5" t="n">
         <v>6</v>
@@ -1344,25 +1411,25 @@
         <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY5" t="n">
         <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA5" t="n">
         <v>18</v>
       </c>
       <c r="BB5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
         <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>0.514</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1412,10 +1479,10 @@
         <v>35.5</v>
       </c>
       <c r="J6" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L6" t="n">
         <v>6.4</v>
@@ -1427,61 +1494,61 @@
         <v>0.349</v>
       </c>
       <c r="O6" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.719</v>
+        <v>0.716</v>
       </c>
       <c r="R6" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="T6" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U6" t="n">
         <v>19.1</v>
       </c>
       <c r="V6" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W6" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y6" t="n">
         <v>4.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB6" t="n">
         <v>95.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>-2.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>2</v>
@@ -1493,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
         <v>14</v>
@@ -1502,13 +1569,13 @@
         <v>12</v>
       </c>
       <c r="AN6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>25</v>
@@ -1529,19 +1596,19 @@
         <v>12</v>
       </c>
       <c r="AW6" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AX6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB6" t="n">
         <v>19</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>4</v>
@@ -1684,13 +1751,13 @@
         <v>17</v>
       </c>
       <c r="AN7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>4</v>
       </c>
       <c r="AP7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1699,13 +1766,13 @@
         <v>21</v>
       </c>
       <c r="AS7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT7" t="n">
         <v>17</v>
       </c>
       <c r="AU7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1714,13 +1781,13 @@
         <v>27</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -1836,25 +1903,25 @@
         <v>3.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK8" t="n">
         <v>12</v>
@@ -1878,10 +1945,10 @@
         <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
         <v>2</v>
@@ -1890,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1902,7 +1969,7 @@
         <v>16</v>
       </c>
       <c r="AZ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>10.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,7 +2100,7 @@
         <v>25</v>
       </c>
       <c r="AI9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ9" t="n">
         <v>21</v>
@@ -2048,25 +2115,25 @@
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
         <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
         <v>12</v>
       </c>
       <c r="AR9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU9" t="n">
         <v>4</v>
@@ -2078,7 +2145,7 @@
         <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>1.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2212,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2230,13 +2297,13 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO10" t="n">
         <v>15</v>
       </c>
-      <c r="AO10" t="n">
-        <v>14</v>
-      </c>
       <c r="AP10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
         <v>20</v>
@@ -2245,7 +2312,7 @@
         <v>6</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT10" t="n">
         <v>11</v>
@@ -2257,13 +2324,13 @@
         <v>7</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
         <v>22</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ10" t="n">
         <v>26</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
         <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>0.514</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J11" t="n">
-        <v>81.59999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L11" t="n">
         <v>6.7</v>
@@ -2334,73 +2401,73 @@
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>0.335</v>
+        <v>0.333</v>
       </c>
       <c r="O11" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P11" t="n">
         <v>22.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.737</v>
+        <v>0.734</v>
       </c>
       <c r="R11" t="n">
         <v>12.4</v>
       </c>
       <c r="S11" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T11" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="U11" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V11" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="W11" t="n">
         <v>7.7</v>
       </c>
       <c r="X11" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z11" t="n">
         <v>20.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>18</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
         <v>23</v>
@@ -2427,28 +2494,28 @@
         <v>7</v>
       </c>
       <c r="AS11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT11" t="n">
         <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
         <v>10</v>
       </c>
       <c r="AX11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA11" t="n">
         <v>24</v>
@@ -2457,7 +2524,7 @@
         <v>20</v>
       </c>
       <c r="BC11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -2486,82 +2553,82 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>0.444</v>
+        <v>0.457</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J12" t="n">
-        <v>86.40000000000001</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.441</v>
       </c>
       <c r="L12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M12" t="n">
         <v>22.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.361</v>
+        <v>0.365</v>
       </c>
       <c r="O12" t="n">
         <v>18</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.743</v>
+        <v>0.747</v>
       </c>
       <c r="R12" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S12" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T12" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U12" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="V12" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="W12" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
         <v>5.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="AA12" t="n">
         <v>21.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.4</v>
+        <v>102.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.6</v>
+        <v>-1</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
         <v>21</v>
@@ -2603,7 +2670,7 @@
         <v>20</v>
       </c>
       <c r="AQ12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR12" t="n">
         <v>10</v>
@@ -2618,13 +2685,13 @@
         <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AW12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2633,13 +2700,13 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2819,7 @@
         <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="n">
         <v>25</v>
@@ -2770,7 +2837,7 @@
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM13" t="n">
         <v>25</v>
@@ -2800,13 +2867,13 @@
         <v>15</v>
       </c>
       <c r="AV13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY13" t="n">
         <v>25</v>
@@ -2821,7 +2888,7 @@
         <v>30</v>
       </c>
       <c r="BC13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -2850,88 +2917,88 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
         <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>0.667</v>
+        <v>0.656</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39</v>
+        <v>38.7</v>
       </c>
       <c r="J14" t="n">
-        <v>82</v>
+        <v>81.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L14" t="n">
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.363</v>
+        <v>0.359</v>
       </c>
       <c r="O14" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="P14" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="Q14" t="n">
         <v>0.765</v>
       </c>
       <c r="R14" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S14" t="n">
         <v>34.2</v>
       </c>
       <c r="T14" t="n">
-        <v>44.9</v>
+        <v>45.1</v>
       </c>
       <c r="U14" t="n">
         <v>23.8</v>
       </c>
       <c r="V14" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X14" t="n">
         <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.5</v>
+        <v>107.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2943,10 +3010,10 @@
         <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2958,13 +3025,13 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
         <v>11</v>
@@ -2982,28 +3049,28 @@
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX14" t="n">
         <v>12</v>
       </c>
       <c r="AY14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>0.294</v>
+        <v>0.303</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J15" t="n">
-        <v>80.2</v>
+        <v>79.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L15" t="n">
         <v>7.8</v>
@@ -3062,55 +3129,55 @@
         <v>21.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O15" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P15" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R15" t="n">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="S15" t="n">
         <v>31.7</v>
       </c>
       <c r="T15" t="n">
-        <v>41.6</v>
+        <v>41.3</v>
       </c>
       <c r="U15" t="n">
         <v>20.5</v>
       </c>
       <c r="V15" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="W15" t="n">
         <v>5.6</v>
       </c>
       <c r="X15" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB15" t="n">
         <v>100.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>-4.2</v>
+        <v>-3.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3140,10 +3207,10 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP15" t="n">
         <v>17</v>
@@ -3152,37 +3219,37 @@
         <v>16</v>
       </c>
       <c r="AR15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS15" t="n">
         <v>9</v>
       </c>
       <c r="AT15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU15" t="n">
         <v>21</v>
       </c>
       <c r="AV15" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AW15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
         <v>5</v>
       </c>
       <c r="BA15" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB15" t="n">
         <v>11</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>10</v>
       </c>
       <c r="BC15" t="n">
         <v>22</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>0.229</v>
+        <v>0.235</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J16" t="n">
-        <v>76.8</v>
+        <v>77</v>
       </c>
       <c r="K16" t="n">
         <v>0.461</v>
@@ -3244,10 +3311,10 @@
         <v>13.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O16" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P16" t="n">
         <v>26.5</v>
@@ -3259,43 +3326,43 @@
         <v>9.4</v>
       </c>
       <c r="S16" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="T16" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="U16" t="n">
         <v>19.7</v>
       </c>
       <c r="V16" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X16" t="n">
         <v>5.1</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA16" t="n">
         <v>22.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="AC16" t="n">
-        <v>-5.5</v>
+        <v>-5.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF16" t="n">
         <v>29</v>
@@ -3304,10 +3371,10 @@
         <v>29</v>
       </c>
       <c r="AH16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ16" t="n">
         <v>28</v>
@@ -3319,16 +3386,16 @@
         <v>27</v>
       </c>
       <c r="AM16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN16" t="n">
         <v>20</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ16" t="n">
         <v>30</v>
@@ -3337,7 +3404,7 @@
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3346,25 +3413,25 @@
         <v>26</v>
       </c>
       <c r="AV16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX16" t="n">
         <v>14</v>
       </c>
       <c r="AY16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ16" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA16" t="n">
         <v>11</v>
       </c>
-      <c r="BA16" t="n">
-        <v>10</v>
-      </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BC16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
         <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>0.412</v>
+        <v>0.394</v>
       </c>
       <c r="H17" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J17" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L17" t="n">
         <v>5.2</v>
@@ -3426,22 +3493,22 @@
         <v>15.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.334</v>
+        <v>0.333</v>
       </c>
       <c r="O17" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P17" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.736</v>
+        <v>0.734</v>
       </c>
       <c r="R17" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S17" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T17" t="n">
         <v>40.8</v>
@@ -3450,55 +3517,55 @@
         <v>21.2</v>
       </c>
       <c r="V17" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
       </c>
       <c r="X17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y17" t="n">
         <v>5.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-5.9</v>
+        <v>-6.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH17" t="n">
         <v>5</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK17" t="n">
         <v>16</v>
       </c>
       <c r="AL17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM17" t="n">
         <v>24</v>
@@ -3519,10 +3586,10 @@
         <v>8</v>
       </c>
       <c r="AS17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU17" t="n">
         <v>14</v>
@@ -3534,7 +3601,7 @@
         <v>19</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY17" t="n">
         <v>21</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -3578,70 +3645,70 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>0.147</v>
+        <v>0.121</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="J18" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="L18" t="n">
         <v>5.7</v>
       </c>
       <c r="M18" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O18" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P18" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="R18" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T18" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U18" t="n">
-        <v>18.7</v>
+        <v>18.4</v>
       </c>
       <c r="V18" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W18" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z18" t="n">
         <v>24</v>
@@ -3650,13 +3717,13 @@
         <v>17.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.800000000000001</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3671,7 +3738,7 @@
         <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="n">
         <v>7</v>
@@ -3701,10 +3768,10 @@
         <v>5</v>
       </c>
       <c r="AS18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -3760,19 +3827,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="n">
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.515</v>
       </c>
       <c r="H19" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I19" t="n">
         <v>33.4</v>
@@ -3781,40 +3848,40 @@
         <v>76.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.32</v>
+        <v>0.323</v>
       </c>
       <c r="O19" t="n">
         <v>21.2</v>
       </c>
       <c r="P19" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.726</v>
+        <v>0.73</v>
       </c>
       <c r="R19" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="S19" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T19" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U19" t="n">
         <v>23.4</v>
       </c>
       <c r="V19" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W19" t="n">
         <v>6.7</v>
@@ -3823,31 +3890,31 @@
         <v>4.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.59999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-4.5</v>
+        <v>-4.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
         <v>5</v>
@@ -3859,13 +3926,13 @@
         <v>29</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>22</v>
       </c>
       <c r="AM19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AN19" t="n">
         <v>29</v>
@@ -3874,43 +3941,43 @@
         <v>8</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
         <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS19" t="n">
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AU19" t="n">
         <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ19" t="n">
         <v>27</v>
       </c>
       <c r="BA19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC19" t="n">
         <v>23</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>4.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
@@ -4032,10 +4099,10 @@
         <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ20" t="n">
         <v>8</v>
@@ -4050,7 +4117,7 @@
         <v>7</v>
       </c>
       <c r="AN20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO20" t="n">
         <v>28</v>
@@ -4065,13 +4132,13 @@
         <v>15</v>
       </c>
       <c r="AS20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT20" t="n">
         <v>10</v>
       </c>
       <c r="AU20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
@@ -4080,10 +4147,10 @@
         <v>9</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ20" t="n">
         <v>3</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
         <v>24</v>
       </c>
       <c r="G21" t="n">
-        <v>0.273</v>
+        <v>0.25</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J21" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.432</v>
+        <v>0.43</v>
       </c>
       <c r="L21" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M21" t="n">
         <v>16.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.333</v>
+        <v>0.33</v>
       </c>
       <c r="O21" t="n">
         <v>18.9</v>
@@ -4163,58 +4230,58 @@
         <v>26.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.708</v>
+        <v>0.707</v>
       </c>
       <c r="R21" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S21" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="T21" t="n">
         <v>42.3</v>
       </c>
       <c r="U21" t="n">
-        <v>17.2</v>
+        <v>16.8</v>
       </c>
       <c r="V21" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W21" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X21" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA21" t="n">
         <v>21.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.09999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-7.8</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF21" t="n">
         <v>27</v>
       </c>
-      <c r="AF21" t="n">
-        <v>26</v>
-      </c>
       <c r="AG21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
@@ -4223,7 +4290,7 @@
         <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
         <v>21</v>
@@ -4232,7 +4299,7 @@
         <v>19</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO21" t="n">
         <v>13</v>
@@ -4256,25 +4323,25 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA21" t="n">
         <v>16</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -4306,25 +4373,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" t="n">
         <v>22</v>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" t="n">
-        <v>0.611</v>
+        <v>0.629</v>
       </c>
       <c r="H22" t="n">
         <v>48.6</v>
       </c>
       <c r="I22" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J22" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.462</v>
@@ -4333,7 +4400,7 @@
         <v>8.9</v>
       </c>
       <c r="M22" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="N22" t="n">
         <v>0.355</v>
@@ -4342,25 +4409,25 @@
         <v>21.1</v>
       </c>
       <c r="P22" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.718</v>
+        <v>0.714</v>
       </c>
       <c r="R22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S22" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="T22" t="n">
-        <v>43</v>
+        <v>43.2</v>
       </c>
       <c r="U22" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V22" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W22" t="n">
         <v>6.5</v>
@@ -4369,7 +4436,7 @@
         <v>4.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z22" t="n">
         <v>21.1</v>
@@ -4378,10 +4445,10 @@
         <v>24.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4390,16 +4457,16 @@
         <v>7</v>
       </c>
       <c r="AF22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH22" t="n">
         <v>3</v>
       </c>
       <c r="AI22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
         <v>22</v>
@@ -4414,28 +4481,28 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ22" t="n">
         <v>26</v>
       </c>
       <c r="AR22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV22" t="n">
         <v>16</v>
@@ -4444,13 +4511,13 @@
         <v>26</v>
       </c>
       <c r="AX22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY22" t="n">
         <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -4488,37 +4555,37 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" t="n">
         <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>0.412</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J23" t="n">
         <v>80.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.446</v>
+        <v>0.448</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M23" t="n">
         <v>12.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.323</v>
+        <v>0.333</v>
       </c>
       <c r="O23" t="n">
         <v>17.5</v>
@@ -4527,67 +4594,67 @@
         <v>24.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.714</v>
+        <v>0.713</v>
       </c>
       <c r="R23" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="S23" t="n">
         <v>29.3</v>
       </c>
       <c r="T23" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U23" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="V23" t="n">
         <v>15.9</v>
       </c>
       <c r="W23" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="X23" t="n">
         <v>5.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA23" t="n">
         <v>20.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.3</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>20</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
         <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>28</v>
@@ -4596,7 +4663,7 @@
         <v>28</v>
       </c>
       <c r="AN23" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO23" t="n">
         <v>22</v>
@@ -4611,16 +4678,16 @@
         <v>4</v>
       </c>
       <c r="AS23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU23" t="n">
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
         <v>7</v>
@@ -4629,7 +4696,7 @@
         <v>6</v>
       </c>
       <c r="AY23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ23" t="n">
         <v>8</v>
@@ -4638,7 +4705,7 @@
         <v>23</v>
       </c>
       <c r="BB23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC23" t="n">
         <v>18</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4766,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK24" t="n">
         <v>1</v>
@@ -4781,10 +4848,10 @@
         <v>5</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ24" t="n">
         <v>6</v>
@@ -4796,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4811,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ24" t="n">
         <v>2</v>
@@ -4823,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="BC24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -4930,25 +4997,25 @@
         <v>0.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI25" t="n">
         <v>20</v>
       </c>
       <c r="AJ25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK25" t="n">
         <v>8</v>
@@ -4957,7 +5024,7 @@
         <v>12</v>
       </c>
       <c r="AM25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN25" t="n">
         <v>4</v>
@@ -4975,7 +5042,7 @@
         <v>24</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" t="n">
         <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>0.394</v>
+        <v>0.375</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
@@ -5052,37 +5119,37 @@
         <v>35.3</v>
       </c>
       <c r="J26" t="n">
-        <v>78.09999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L26" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M26" t="n">
         <v>16.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.351</v>
+        <v>0.347</v>
       </c>
       <c r="O26" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="P26" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
       <c r="R26" t="n">
         <v>10.2</v>
       </c>
       <c r="S26" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="T26" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="U26" t="n">
         <v>17.9</v>
@@ -5091,13 +5158,13 @@
         <v>16.7</v>
       </c>
       <c r="W26" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X26" t="n">
         <v>3.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z26" t="n">
         <v>22.5</v>
@@ -5106,25 +5173,25 @@
         <v>23.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>-3</v>
+        <v>-3.2</v>
       </c>
       <c r="AD26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF26" t="n">
         <v>21</v>
       </c>
-      <c r="AE26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>19</v>
-      </c>
       <c r="AG26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
         <v>25</v>
@@ -5133,7 +5200,7 @@
         <v>23</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
         <v>20</v>
@@ -5142,13 +5209,13 @@
         <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
       </c>
       <c r="AP26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ26" t="n">
         <v>5</v>
@@ -5157,7 +5224,7 @@
         <v>23</v>
       </c>
       <c r="AS26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5166,7 +5233,7 @@
         <v>29</v>
       </c>
       <c r="AV26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW26" t="n">
         <v>8</v>
@@ -5184,7 +5251,7 @@
         <v>6</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>20</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>6.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
         <v>4</v>
@@ -5309,7 +5376,7 @@
         <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ27" t="n">
         <v>20</v>
@@ -5339,7 +5406,7 @@
         <v>22</v>
       </c>
       <c r="AS27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT27" t="n">
         <v>18</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -5398,94 +5465,94 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28" t="n">
-        <v>0.265</v>
+        <v>0.273</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J28" t="n">
-        <v>85.09999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M28" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.355</v>
+        <v>0.357</v>
       </c>
       <c r="O28" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P28" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="Q28" t="n">
         <v>0.768</v>
       </c>
       <c r="R28" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
         <v>45.5</v>
       </c>
       <c r="U28" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V28" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="W28" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA28" t="n">
         <v>20.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.2</v>
+        <v>97.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>-7</v>
+        <v>-6.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
       </c>
       <c r="AF28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH28" t="n">
         <v>16</v>
@@ -5494,22 +5561,22 @@
         <v>7</v>
       </c>
       <c r="AJ28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL28" t="n">
         <v>25</v>
       </c>
-      <c r="AL28" t="n">
+      <c r="AM28" t="n">
         <v>26</v>
       </c>
-      <c r="AM28" t="n">
-        <v>27</v>
-      </c>
       <c r="AN28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
@@ -5518,7 +5585,7 @@
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5530,10 +5597,10 @@
         <v>17</v>
       </c>
       <c r="AV28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX28" t="n">
         <v>13</v>
@@ -5548,7 +5615,7 @@
         <v>21</v>
       </c>
       <c r="BB28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC28" t="n">
         <v>28</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>1.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF29" t="n">
         <v>15</v>
       </c>
-      <c r="AF29" t="n">
-        <v>14</v>
-      </c>
       <c r="AG29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
         <v>23</v>
@@ -5703,7 +5770,7 @@
         <v>20</v>
       </c>
       <c r="AS29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
         <v>23</v>
@@ -5718,7 +5785,7 @@
         <v>25</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY29" t="n">
         <v>13</v>
@@ -5733,7 +5800,7 @@
         <v>18</v>
       </c>
       <c r="BC29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -5762,64 +5829,64 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F30" t="n">
         <v>17</v>
       </c>
       <c r="G30" t="n">
-        <v>0.528</v>
+        <v>0.514</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J30" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.489</v>
+        <v>0.49</v>
       </c>
       <c r="L30" t="n">
         <v>3.9</v>
       </c>
       <c r="M30" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.352</v>
+        <v>0.358</v>
       </c>
       <c r="O30" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="P30" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.747</v>
+        <v>0.745</v>
       </c>
       <c r="R30" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="S30" t="n">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="T30" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="U30" t="n">
         <v>25.4</v>
       </c>
       <c r="V30" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W30" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X30" t="n">
         <v>4.3</v>
@@ -5828,16 +5895,16 @@
         <v>6</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>104.7</v>
+        <v>104.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -5846,10 +5913,10 @@
         <v>12</v>
       </c>
       <c r="AF30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG30" t="n">
         <v>14</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>12</v>
       </c>
       <c r="AH30" t="n">
         <v>25</v>
@@ -5870,22 +5937,22 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP30" t="n">
         <v>6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
       </c>
       <c r="AS30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT30" t="n">
         <v>26</v>
@@ -5897,10 +5964,10 @@
         <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY30" t="n">
         <v>29</v>
@@ -5909,7 +5976,7 @@
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
@@ -5944,40 +6011,40 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" t="n">
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" t="n">
-        <v>0.515</v>
+        <v>0.531</v>
       </c>
       <c r="H31" t="n">
         <v>48.3</v>
       </c>
       <c r="I31" t="n">
-        <v>37</v>
+        <v>37.3</v>
       </c>
       <c r="J31" t="n">
-        <v>81.7</v>
+        <v>82</v>
       </c>
       <c r="K31" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L31" t="n">
         <v>6.5</v>
       </c>
       <c r="M31" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O31" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P31" t="n">
         <v>24.4</v>
@@ -5986,61 +6053,61 @@
         <v>0.79</v>
       </c>
       <c r="R31" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S31" t="n">
-        <v>31.1</v>
+        <v>31.5</v>
       </c>
       <c r="T31" t="n">
-        <v>42.9</v>
+        <v>43.3</v>
       </c>
       <c r="U31" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="V31" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W31" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X31" t="n">
         <v>5</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA31" t="n">
         <v>20</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG31" t="n">
         <v>12</v>
       </c>
-      <c r="AG31" t="n">
-        <v>13</v>
-      </c>
       <c r="AH31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>13</v>
@@ -6052,7 +6119,7 @@
         <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO31" t="n">
         <v>12</v>
@@ -6064,13 +6131,13 @@
         <v>4</v>
       </c>
       <c r="AR31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AS31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU31" t="n">
         <v>25</v>
@@ -6079,22 +6146,22 @@
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
         <v>15</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ31" t="n">
         <v>4</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC31" t="n">
         <v>11</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-8-2007-08</t>
+          <t>2008-01-08</t>
         </is>
       </c>
     </row>
